--- a/biology/Zoologie/Ctenicera/Ctenicera.xlsx
+++ b/biology/Zoologie/Ctenicera/Ctenicera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenicera est un genre de coléoptères élatéridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces insectes présentent un corps plat et plutôt étroit à reflets métalliques mesurant de 9 à 18 millimètres selon les espèces. Les antennes de certaines espèces sont très nettement pectinées.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neuf espèces que l'on rencontre en Europe se trouvent surtout dans les régions montagneuses.
 Ces taupins y apprécient les prés ensoleillés des montagnes et sont très actifs sous le soleil du printemps à l'été.
@@ -574,7 +590,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ctenicera bonomii Binaghi, 1940
 Ctenicera bosnica (Apfelbeck, 1894)
@@ -612,7 +630,9 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ctenicera africanus (Schwarz, 1905)
 Ctenicera agriotoides (Sharp, 1877)
@@ -748,7 +768,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Synonymes
 Corymbites Latreille, 1834
